--- a/docs/neo_facet_cor.xlsx
+++ b/docs/neo_facet_cor.xlsx
@@ -32,19 +32,19 @@
     <t>Facet</t>
   </si>
   <si>
-    <t>N4</t>
+    <t>N</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>E</t>
   </si>
   <si>
-    <t>O4</t>
+    <t>O</t>
   </si>
   <si>
-    <t>A4</t>
+    <t>A</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
